--- a/dados/04_execucao_piloto.xlsx
+++ b/dados/04_execucao_piloto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b755341190342fa/projetos/finops-automatic/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_CD217A20542AF038A41C980FFC3F3930D0193EB2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63DB7465-0BA3-4745-AD07-16D1D8C74917}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_CD217A20542AF038A41C980FFC3F3930D0193EB2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC334551-0647-4C3F-AD55-9593C0401CFE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
     <t>Arimatéia Júnior</t>
   </si>
   <si>
-    <t>Yuri</t>
+    <t>Alexandre do Carmo</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -456,7 +455,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -500,7 +498,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1741,7 +1738,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
